--- a/public/static/file/客户信息模板.xlsx
+++ b/public/static/file/客户信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息模板" sheetId="8" r:id="rId1"/>
@@ -152,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -173,72 +173,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -253,17 +218,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,38 +287,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,19 +367,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,25 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,85 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +550,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -565,6 +600,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -576,39 +620,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,17 +647,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -655,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,133 +667,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/public/static/file/客户信息模板.xlsx
+++ b/public/static/file/客户信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息模板" sheetId="8" r:id="rId1"/>
@@ -37,12 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>跟进状态</t>
   </si>
   <si>
     <t>接入日期</t>
+  </si>
+  <si>
+    <t>业务员</t>
   </si>
   <si>
     <t>客户编号</t>
@@ -152,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -173,30 +176,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +241,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -219,98 +289,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,6 +370,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,7 +430,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,19 +484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,115 +508,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,37 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,22 +587,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,15 +650,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -655,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,19 +670,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,112 +691,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,7 +1204,7 @@
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1237,120 +1240,122 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AL1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AM1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AN1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/file/客户信息模板.xlsx
+++ b/public/static/file/客户信息模板.xlsx
@@ -45,9 +45,6 @@
     <t>接入日期</t>
   </si>
   <si>
-    <t>业务员</t>
-  </si>
-  <si>
     <t>客户编号</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>客户反馈</t>
+  </si>
+  <si>
+    <t>项目来源</t>
   </si>
   <si>
     <t>客户名称（业主方）</t>
@@ -155,8 +155,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -175,59 +175,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,29 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -288,32 +251,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,163 +370,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,17 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,20 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +597,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +633,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -635,21 +650,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,7 +661,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,134 +673,134 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +839,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1201,10 +1204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1228,134 +1231,135 @@
     <col min="25" max="25" width="16.25" style="3" customWidth="1"/>
     <col min="26" max="26" width="17.4416666666667" style="3" customWidth="1"/>
     <col min="27" max="27" width="19.8833333333333" style="3" customWidth="1"/>
-    <col min="28" max="35" width="8.88333333333333" style="3"/>
-    <col min="36" max="36" width="18.75" style="3" customWidth="1"/>
-    <col min="37" max="16384" width="8.88333333333333" style="3"/>
+    <col min="28" max="36" width="8.88333333333333" style="3"/>
+    <col min="37" max="37" width="18.75" style="3" customWidth="1"/>
+    <col min="38" max="16384" width="8.88333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:41">
+    <row r="1" s="1" customFormat="1" spans="1:42">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AK1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AL1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AN1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="17" t="s">
-        <v>27</v>
+      <c r="AP1" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/file/客户信息模板.xlsx
+++ b/public/static/file/客户信息模板.xlsx
@@ -19,7 +19,7 @@
     <author>余朵</author>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>跟进状态</t>
   </si>
@@ -45,6 +45,9 @@
     <t>接入日期</t>
   </si>
   <si>
+    <t>业务员</t>
+  </si>
+  <si>
     <t>客户编号</t>
   </si>
   <si>
@@ -70,6 +73,15 @@
   </si>
   <si>
     <t>项目名</t>
+  </si>
+  <si>
+    <t>项目跟进状态</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>成交时间</t>
   </si>
   <si>
     <t>客户咨询</t>
@@ -155,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -172,6 +184,111 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,136 +301,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,31 +382,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,127 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,15 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -577,17 +580,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,26 +628,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,10 +1216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AS1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1219,147 +1231,158 @@
     <col min="5" max="8" width="8.88333333333333" style="3"/>
     <col min="9" max="9" width="12.8833333333333" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="11" max="12" width="22.4416666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="55.2166666666667" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.1083333333333" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.1083333333333" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.8833333333333" style="3" customWidth="1"/>
-    <col min="17" max="21" width="8.88333333333333" style="3"/>
-    <col min="22" max="22" width="18.8833333333333" style="3" customWidth="1"/>
-    <col min="23" max="23" width="20.875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.5" style="3" customWidth="1"/>
-    <col min="25" max="25" width="16.25" style="3" customWidth="1"/>
-    <col min="26" max="26" width="17.4416666666667" style="3" customWidth="1"/>
-    <col min="27" max="27" width="19.8833333333333" style="3" customWidth="1"/>
-    <col min="28" max="36" width="8.88333333333333" style="3"/>
-    <col min="37" max="37" width="18.75" style="3" customWidth="1"/>
-    <col min="38" max="16384" width="8.88333333333333" style="3"/>
+    <col min="11" max="15" width="22.4416666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="55.2166666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10.1083333333333" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.1083333333333" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.8833333333333" style="3" customWidth="1"/>
+    <col min="20" max="24" width="8.88333333333333" style="3"/>
+    <col min="25" max="25" width="18.8833333333333" style="3" customWidth="1"/>
+    <col min="26" max="26" width="20.875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="18.5" style="3" customWidth="1"/>
+    <col min="28" max="28" width="16.25" style="3" customWidth="1"/>
+    <col min="29" max="29" width="17.4416666666667" style="3" customWidth="1"/>
+    <col min="30" max="30" width="19.8833333333333" style="3" customWidth="1"/>
+    <col min="31" max="39" width="8.88333333333333" style="3"/>
+    <col min="40" max="40" width="18.75" style="3" customWidth="1"/>
+    <col min="41" max="16384" width="8.88333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:42">
+    <row r="1" s="1" customFormat="1" spans="1:45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="U1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AA1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AB1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AC1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AD1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AE1" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="AG1" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" s="17" t="s">
-        <v>23</v>
+      <c r="AK1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="AN1" s="17" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="18" t="s">
         <v>26</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
